--- a/biology/Zoologie/Cydia_(genre)/Cydia_(genre).xlsx
+++ b/biology/Zoologie/Cydia_(genre)/Cydia_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cydia est un genre de papillons de la famille des Tortricidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cydia acerivora (Danilevsky in Danilevsky &amp; Kuznetsov, 1968)
@@ -552,7 +566,7 @@
 Cydia conoterma (Meyrick, 1922)
 Cydia conspicua (Walsingham in Sharp, 1907)
 Cydia cornucopiae (Tengstrom, 1869)
-Cydia corollana (Hübner, [1823])
+Cydia corollana (Hübner, )
 Cydia cosmophorana
 Cydia costastrigulana (McDunnough, 1935)
 Cydia crassicornis (Walsingham in Sharp, 1907)
@@ -610,7 +624,7 @@
 Cydia ingrata (Heinrich, 1926)
 Cydia injectiva (Heinrich, 1926)
 Cydia inopiosa (Heinrich, 1926)
-Cydia inquinatana (Hübner, [1799])
+Cydia inquinatana (Hübner, )
 Cydia interscindana (Möschler, 1866)
 Cydia intexta (Kawabe, 1980)
 Cydia japonensis Kawabe, 1980
@@ -724,7 +738,7 @@
 Cydia tropicana Kuznetzov, 1992
 Cydia tunisiana Aarvik &amp; Karsholt, 1993
 Cydia turcianae Chambon in Chambon, Witzgall &amp; Bengtsson, 1993
-Cydia ulicetana (Haworth, [1811])
+Cydia ulicetana (Haworth, )
 Cydia undosa (Diakonoff, 1957)
 Cydia uranatma (Meyrick, 1936)
 Cydia vallesiaca (Sauter, 1968)
@@ -758,7 +772,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Adenoneura Walsingham, 1907
